--- a/hardware/cm4_cb_use_v01/smt_files/bom_v2.xlsx
+++ b/hardware/cm4_cb_use_v01/smt_files/bom_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\kicad\5.99\projects\cm4_cb_use_v01\hardware\cm4_cb_use_v01\smt_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EBD4D4-72B4-43EC-AC5B-FAF1706C4C0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98725F8-105A-4BC4-822F-6BDAB9F2F7F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{1A74CD07-A9E2-4AAC-B70F-19A631FCE804}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
   <si>
     <t>Comment</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>nei</t>
-  </si>
-  <si>
     <t>MOLEX_HDMI:MOLEX_HDMI</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>900-2086588131TR-ND</t>
   </si>
   <si>
-    <t>Farnell/Digi-key</t>
-  </si>
-  <si>
     <t>https://www.digikey.no/product-detail/no/molex/2086588131/900-2086588131TR-ND/10493710</t>
   </si>
   <si>
@@ -364,6 +358,54 @@
   </si>
   <si>
     <t>https://no.farnell.com/c-k-components/1101m2s3aqe2/slide-switch-spdt-r-a-on-on/dp/1437701</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Power_connector</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>22-05-1022</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/2700795.pdf</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/molex/22-05-1022/connector-header-2pos-1row-2-5mm/dp/9731008?ost=22-05-1022&amp;iscrfnonsku=false</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>261k</t>
+  </si>
+  <si>
+    <t>61k</t>
+  </si>
+  <si>
+    <t>CRCW0805261KFKEA</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/2111203.pdf</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/vishay/crcw0805261kfkea/res-thick-film-261k-1-0-125w-0805/dp/2321189?ost=261k&amp;iscrfnonsku=false</t>
+  </si>
+  <si>
+    <t>CRCW080551K0FKEA</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/vishay/crcw080551k0fkea/res-51k-1-0-125w-0805-thick-film/dp/1653018</t>
+  </si>
+  <si>
+    <t>Part number</t>
   </si>
 </sst>
 </file>
@@ -409,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -518,12 +560,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -554,6 +645,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -869,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E2F496-2F06-48A1-A040-967BCFD892F7}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,19 +1003,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>42</v>
@@ -934,19 +1038,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="14">
         <v>1867958</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>41</v>
@@ -966,19 +1070,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="8">
         <v>1833888</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>41</v>
@@ -998,19 +1102,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="9">
         <v>1414687</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>41</v>
@@ -1030,19 +1134,19 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="8">
         <v>1867955</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>41</v>
@@ -1062,19 +1166,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7">
         <v>1318243</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>41</v>
@@ -1094,19 +1198,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="8">
         <v>2314331</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>41</v>
@@ -1114,31 +1218,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="9">
         <v>2086588131</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>41</v>
@@ -1146,7 +1250,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -1158,19 +1262,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="H9" s="8">
         <v>2524076</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>41</v>
@@ -1190,19 +1294,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="7">
         <v>3122975</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>41</v>
@@ -1222,19 +1326,19 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H11" s="8">
         <v>2470285</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>41</v>
@@ -1242,31 +1346,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="H12" s="7">
         <v>2427679</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>41</v>
@@ -1286,19 +1390,19 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H13" s="8">
         <v>1469847</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>41</v>
@@ -1318,19 +1422,19 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>1738964</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>41</v>
@@ -1350,19 +1454,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="8">
         <v>1469860</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>41</v>
@@ -1382,19 +1486,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>3119597</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>41</v>
@@ -1414,108 +1518,169 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="8">
         <v>3116502</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="9">
+        <v>9731008</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="8">
         <v>1437701</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2321189</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="3"/>
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1653018</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
